--- a/data/prematurity/perinatal mortality rate.xlsx
+++ b/data/prematurity/perinatal mortality rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://righttocare-my.sharepoint.com/personal/shida_nyimbili_righttocare-zambia_org/Documents/Desktop/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snyimbili\Desktop\IHM\Zambia-E4H\data\prematurity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F654DDA5-9A63-41B0-8075-F892F32E9C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB24D691-EFA0-4BCF-B5E1-C19552FAE943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5130160B-BBEB-4E60-B975-F3061A61DA71}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{58B0EE6E-B82B-4C9A-AB2A-F089AC76CBCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Provincial Perinatal Mort Rate " sheetId="1" r:id="rId1"/>
@@ -431,274 +431,274 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4813A061-CC79-4E00-95BF-68B7A5D3669B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB0088A-3669-4E85-B593-126A12443408}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.5">

--- a/data/prematurity/perinatal mortality rate.xlsx
+++ b/data/prematurity/perinatal mortality rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snyimbili\Desktop\IHM\Zambia-E4H\data\prematurity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://righttocare-my.sharepoint.com/personal/shida_nyimbili_righttocare-zambia_org/Documents/Documents/RTCZ/RTCZ/R/Zambia-E4H/data/prematurity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB24D691-EFA0-4BCF-B5E1-C19552FAE943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{EB24D691-EFA0-4BCF-B5E1-C19552FAE943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E91F489-3FFA-4725-9FCF-B0F5FBD4D72D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{58B0EE6E-B82B-4C9A-AB2A-F089AC76CBCC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{58B0EE6E-B82B-4C9A-AB2A-F089AC76CBCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Provincial Perinatal Mort Rate " sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Muchinga</t>
   </si>
   <si>
-    <t>North Western</t>
-  </si>
-  <si>
     <t>Northern</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Western</t>
+  </si>
+  <si>
+    <t>North-Western</t>
   </si>
 </sst>
 </file>
@@ -438,267 +438,267 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.5">
@@ -780,7 +780,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>4.179765647327808</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>1.726980139728393</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>3.3009242587924619</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>2.2254960348556563</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1">
         <v>10.201305767138194</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
         <v>3.6512283208318448</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
         <v>7.627093783918566</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1">
         <v>4.9679809321425497</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B28" s="1">
         <v>18.115048370741867</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1">
         <v>12.216546832807367</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1">
         <v>15.10371311510514</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="1">
         <v>12.871261843348572</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B38" s="1">
         <v>23.790717512874792</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1">
         <v>20.069323426339071</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" s="1">
         <v>12.444507081953351</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1">
         <v>12.466237274049449</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B48" s="1">
         <v>16.936788353579242</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1">
         <v>15.17062382336276</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" s="1">
         <v>11.889809930503224</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51" s="1">
         <v>11.251798561151078</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B58" s="1">
         <v>13.193935419158212</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59" s="1">
         <v>14.494028636153693</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" s="1">
         <v>15.29497450837582</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61" s="1">
         <v>9.7995379685520536</v>
